--- a/Requisitos Funcionais e Não Funcionais.xlsx
+++ b/Requisitos Funcionais e Não Funcionais.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas\Documents\MVP\ADS_MVP_Circuito_Saquarema_Verde-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B67E5F-0EEF-4641-93C1-E13CABE188FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70F7DA8-7E37-4D29-9018-77697CC2E3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>Manutenção</t>
   </si>
   <si>
-    <t>Após Login no sistema, o administrador ira fazer a manutenção incluindo disponibilidade e horários de funcionamento de eventos e temporadas, além de atualizações de novidades.</t>
-  </si>
-  <si>
     <t>RF03</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Após Login no sistema, o administrador ira fazer a manutenção incluindo disponibilidade, horários de funcionamento e local dos eventos na cidade</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -518,7 +518,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -544,16 +544,16 @@
     </row>
     <row r="5" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -579,30 +579,30 @@
     </row>
     <row r="6" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -625,77 +625,77 @@
     </row>
     <row r="11" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
